--- a/src/app/data/Database.xlsx
+++ b/src/app/data/Database.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7940" activeTab="9"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="ISO" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Australia " state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Canada " state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Hong Kong " state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="Singapore " state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="South Korea " state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="Turkey " state="visible" r:id="rId10"/>
-    <sheet sheetId="8" name="USA California " state="visible" r:id="rId11"/>
-    <sheet sheetId="9" name="Brazil " state="visible" r:id="rId12"/>
-    <sheet sheetId="10" name="GDPR" state="visible" r:id="rId13"/>
+    <sheet name="ISO" sheetId="1" r:id="rId1"/>
+    <sheet name="Australia " sheetId="2" r:id="rId2"/>
+    <sheet name="Canada " sheetId="3" r:id="rId3"/>
+    <sheet name="Hong Kong " sheetId="4" r:id="rId4"/>
+    <sheet name="Singapore " sheetId="5" r:id="rId5"/>
+    <sheet name="South Korea " sheetId="6" r:id="rId6"/>
+    <sheet name="Turkey " sheetId="7" r:id="rId7"/>
+    <sheet name="USA California " sheetId="8" r:id="rId8"/>
+    <sheet name="Brazil " sheetId="9" r:id="rId9"/>
+    <sheet name="GDPR" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="1601">
   <si>
     <t>id</t>
   </si>
@@ -2776,8 +2779,7 @@
     <t>6.4.e</t>
   </si>
   <si>
-    <t>
-Article(6)(4)(e): Where the processing for a purpose other than that for which the personal data have been collected is not based on the data subject's...</t>
+    <t>Article(6)(4)(e): Where the processing for a purpose other than that for which the personal data have been collected is not based on the data subject's...</t>
   </si>
   <si>
     <t>7.2.2;7.4.5</t>
@@ -5063,19 +5065,33 @@
   </si>
   <si>
     <t>Article(49)(5): In the absence of an adequacy decision, Union or Member State law may, for important reasons of public interest, expressly set limits to the...</t>
+  </si>
+  <si>
+    <t>5 - Section 5</t>
+  </si>
+  <si>
+    <t>5.2 - Section 5.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5095,13 +5111,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5440,9 +5459,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="65.81640625" customWidth="1"/>
+    <col min="3" max="3" width="55.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5459,29 +5487,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1599</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1600</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -5495,7 +5523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5509,7 +5537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -5523,7 +5551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5537,7 +5565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5551,7 +5579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5565,7 +5593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -5576,7 +5604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -5587,7 +5615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -5601,7 +5629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -5615,7 +5643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -5626,7 +5654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -5637,7 +5665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -5648,7 +5676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -5662,7 +5690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -5673,7 +5701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -5684,7 +5712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -5698,7 +5726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -5709,7 +5737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -5723,7 +5751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -5734,7 +5762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -5745,7 +5773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5759,7 +5787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -5770,7 +5798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5781,7 +5809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -5795,7 +5823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5809,7 +5837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -5820,7 +5848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5834,7 +5862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -5848,7 +5876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -5862,7 +5890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -5873,7 +5901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -5884,7 +5912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -5898,7 +5926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -5912,7 +5940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -5926,7 +5954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -5937,7 +5965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -5951,7 +5979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -5962,7 +5990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -5973,7 +6001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -5987,7 +6015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -5998,7 +6026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -6009,7 +6037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -6023,7 +6051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -6037,7 +6065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -6048,7 +6076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -6059,7 +6087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -6073,7 +6101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -6084,7 +6112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -6098,7 +6126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -6109,7 +6137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -6123,7 +6151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -6137,7 +6165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -6148,7 +6176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6159,7 +6187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -6173,7 +6201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -6187,7 +6215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -6198,7 +6226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -6209,7 +6237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -6223,7 +6251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -6234,7 +6262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -6248,7 +6276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -6262,7 +6290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>132</v>
       </c>
@@ -6273,7 +6301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -6287,7 +6315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>136</v>
       </c>
@@ -6298,7 +6326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -6309,7 +6337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -6323,7 +6351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -6334,7 +6362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -6345,7 +6373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -6359,7 +6387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -6373,7 +6401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -6384,7 +6412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -6395,7 +6423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -6409,7 +6437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -6423,7 +6451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -6434,7 +6462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -6448,7 +6476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6462,7 +6490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -6473,7 +6501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -6484,7 +6512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -6498,7 +6526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6512,7 +6540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -6526,7 +6554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>175</v>
       </c>
@@ -6540,7 +6568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -6554,7 +6582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>181</v>
       </c>
@@ -6568,7 +6596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -6582,7 +6610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -6596,7 +6624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -6607,7 +6635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -6621,7 +6649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -6635,7 +6663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -6649,7 +6677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>200</v>
       </c>
@@ -6663,7 +6691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>203</v>
       </c>
@@ -6677,7 +6705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>206</v>
       </c>
@@ -6691,7 +6719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>209</v>
       </c>
@@ -6705,7 +6733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -6719,7 +6747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>215</v>
       </c>
@@ -6733,7 +6761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>218</v>
       </c>
@@ -6747,7 +6775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>221</v>
       </c>
@@ -6758,7 +6786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -6772,7 +6800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>225</v>
       </c>
@@ -6786,7 +6814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -6800,7 +6828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>231</v>
       </c>
@@ -6814,7 +6842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>234</v>
       </c>
@@ -6828,7 +6856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>237</v>
       </c>
@@ -6842,7 +6870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>240</v>
       </c>
@@ -6856,7 +6884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>243</v>
       </c>
@@ -6870,7 +6898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>246</v>
       </c>
@@ -6884,7 +6912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>249</v>
       </c>
@@ -6895,7 +6923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>250</v>
       </c>
@@ -6909,7 +6937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>253</v>
       </c>
@@ -6923,7 +6951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>256</v>
       </c>
@@ -6937,7 +6965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>259</v>
       </c>
@@ -6951,7 +6979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>262</v>
       </c>
@@ -6962,7 +6990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>263</v>
       </c>
@@ -6973,7 +7001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>264</v>
       </c>
@@ -6987,7 +7015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>267</v>
       </c>
@@ -7001,7 +7029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>270</v>
       </c>
@@ -7015,7 +7043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>273</v>
       </c>
@@ -7029,7 +7057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>276</v>
       </c>
@@ -7043,7 +7071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>279</v>
       </c>
@@ -7057,7 +7085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -7068,7 +7096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>283</v>
       </c>
@@ -7082,7 +7110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>286</v>
       </c>
@@ -7093,7 +7121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>287</v>
       </c>
@@ -7107,7 +7135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>290</v>
       </c>
@@ -7121,7 +7149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>293</v>
       </c>
@@ -7135,7 +7163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>296</v>
       </c>
@@ -7146,7 +7174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>297</v>
       </c>
@@ -7160,7 +7188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>300</v>
       </c>
@@ -7174,7 +7202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>302</v>
       </c>
@@ -7188,7 +7216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>305</v>
       </c>
@@ -7202,7 +7230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>308</v>
       </c>
@@ -7216,7 +7244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>311</v>
       </c>
@@ -7230,7 +7258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>314</v>
       </c>
@@ -7244,7 +7272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>317</v>
       </c>
@@ -7260,16 +7288,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E406"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7286,7 +7317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7297,7 +7328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>830</v>
       </c>
@@ -7308,7 +7339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>831</v>
       </c>
@@ -7322,7 +7353,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>834</v>
       </c>
@@ -7336,7 +7367,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>837</v>
       </c>
@@ -7350,7 +7381,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>840</v>
       </c>
@@ -7364,7 +7395,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>843</v>
       </c>
@@ -7378,7 +7409,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>846</v>
       </c>
@@ -7392,7 +7423,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -7406,7 +7437,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -7417,7 +7448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>851</v>
       </c>
@@ -7428,7 +7459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>852</v>
       </c>
@@ -7442,7 +7473,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>854</v>
       </c>
@@ -7456,7 +7487,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>856</v>
       </c>
@@ -7470,7 +7501,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>858</v>
       </c>
@@ -7484,7 +7515,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>860</v>
       </c>
@@ -7498,7 +7529,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>862</v>
       </c>
@@ -7512,7 +7543,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -7526,7 +7557,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -7537,7 +7568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>865</v>
       </c>
@@ -7551,7 +7582,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>867</v>
       </c>
@@ -7565,7 +7596,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>869</v>
       </c>
@@ -7579,7 +7610,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>871</v>
       </c>
@@ -7593,7 +7624,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>873</v>
       </c>
@@ -7607,7 +7638,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -7618,7 +7649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>876</v>
       </c>
@@ -7632,7 +7663,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -7646,7 +7677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>190</v>
       </c>
@@ -7660,7 +7691,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>221</v>
       </c>
@@ -7674,7 +7705,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>262</v>
       </c>
@@ -7685,7 +7716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>881</v>
       </c>
@@ -7699,7 +7730,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -7713,7 +7744,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -7727,7 +7758,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>885</v>
       </c>
@@ -7738,7 +7769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>886</v>
       </c>
@@ -7752,7 +7783,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>888</v>
       </c>
@@ -7763,7 +7794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>889</v>
       </c>
@@ -7777,7 +7808,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>891</v>
       </c>
@@ -7791,7 +7822,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>893</v>
       </c>
@@ -7805,7 +7836,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>895</v>
       </c>
@@ -7819,7 +7850,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>897</v>
       </c>
@@ -7833,7 +7864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>899</v>
       </c>
@@ -7847,7 +7878,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>901</v>
       </c>
@@ -7861,7 +7892,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>903</v>
       </c>
@@ -7875,7 +7906,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>905</v>
       </c>
@@ -7889,7 +7920,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>907</v>
       </c>
@@ -7903,7 +7934,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>909</v>
       </c>
@@ -7917,7 +7948,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>911</v>
       </c>
@@ -7931,7 +7962,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>913</v>
       </c>
@@ -7945,7 +7976,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>915</v>
       </c>
@@ -7956,7 +7987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>916</v>
       </c>
@@ -7970,7 +8001,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>918</v>
       </c>
@@ -7984,7 +8015,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>921</v>
       </c>
@@ -7995,7 +8026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>922</v>
       </c>
@@ -8009,7 +8040,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>924</v>
       </c>
@@ -8023,7 +8054,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>926</v>
       </c>
@@ -8037,7 +8068,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>928</v>
       </c>
@@ -8051,7 +8082,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>930</v>
       </c>
@@ -8065,7 +8096,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>932</v>
       </c>
@@ -8079,7 +8110,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>934</v>
       </c>
@@ -8093,7 +8124,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>936</v>
       </c>
@@ -8104,7 +8135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>937</v>
       </c>
@@ -8115,7 +8146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>938</v>
       </c>
@@ -8129,7 +8160,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>940</v>
       </c>
@@ -8143,7 +8174,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>942</v>
       </c>
@@ -8157,7 +8188,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>944</v>
       </c>
@@ -8171,7 +8202,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>946</v>
       </c>
@@ -8185,7 +8216,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>948</v>
       </c>
@@ -8199,7 +8230,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>950</v>
       </c>
@@ -8210,7 +8241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>951</v>
       </c>
@@ -8224,7 +8255,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>953</v>
       </c>
@@ -8238,7 +8269,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>956</v>
       </c>
@@ -8252,7 +8283,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>959</v>
       </c>
@@ -8266,7 +8297,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>961</v>
       </c>
@@ -8280,7 +8311,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>963</v>
       </c>
@@ -8294,7 +8325,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>965</v>
       </c>
@@ -8308,7 +8339,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>967</v>
       </c>
@@ -8322,7 +8353,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>969</v>
       </c>
@@ -8333,7 +8364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>970</v>
       </c>
@@ -8344,7 +8375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>971</v>
       </c>
@@ -8358,7 +8389,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>973</v>
       </c>
@@ -8372,7 +8403,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>975</v>
       </c>
@@ -8386,7 +8417,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>977</v>
       </c>
@@ -8400,7 +8431,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>979</v>
       </c>
@@ -8414,7 +8445,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>981</v>
       </c>
@@ -8428,7 +8459,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>983</v>
       </c>
@@ -8439,7 +8470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>984</v>
       </c>
@@ -8453,7 +8484,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>986</v>
       </c>
@@ -8467,7 +8498,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>988</v>
       </c>
@@ -8481,7 +8512,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>990</v>
       </c>
@@ -8495,7 +8526,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>992</v>
       </c>
@@ -8509,7 +8540,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>994</v>
       </c>
@@ -8523,7 +8554,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>996</v>
       </c>
@@ -8537,7 +8568,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>998</v>
       </c>
@@ -8548,7 +8579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>999</v>
       </c>
@@ -8562,7 +8593,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1001</v>
       </c>
@@ -8576,7 +8607,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1003</v>
       </c>
@@ -8590,7 +8621,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1005</v>
       </c>
@@ -8604,7 +8635,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1007</v>
       </c>
@@ -8615,7 +8646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1008</v>
       </c>
@@ -8629,7 +8660,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1010</v>
       </c>
@@ -8643,7 +8674,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1012</v>
       </c>
@@ -8657,7 +8688,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1014</v>
       </c>
@@ -8671,7 +8702,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1016</v>
       </c>
@@ -8682,7 +8713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1017</v>
       </c>
@@ -8693,7 +8724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1018</v>
       </c>
@@ -8707,7 +8738,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1021</v>
       </c>
@@ -8721,7 +8752,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1023</v>
       </c>
@@ -8735,7 +8766,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1025</v>
       </c>
@@ -8749,7 +8780,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1027</v>
       </c>
@@ -8763,7 +8794,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1029</v>
       </c>
@@ -8777,7 +8808,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1031</v>
       </c>
@@ -8791,7 +8822,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1033</v>
       </c>
@@ -8805,7 +8836,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1035</v>
       </c>
@@ -8819,7 +8850,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1038</v>
       </c>
@@ -8833,7 +8864,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1041</v>
       </c>
@@ -8847,7 +8878,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1043</v>
       </c>
@@ -8861,7 +8892,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>1045</v>
       </c>
@@ -8872,7 +8903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1046</v>
       </c>
@@ -8883,7 +8914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1047</v>
       </c>
@@ -8897,7 +8928,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1049</v>
       </c>
@@ -8911,7 +8942,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1051</v>
       </c>
@@ -8925,7 +8956,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1053</v>
       </c>
@@ -8939,7 +8970,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1055</v>
       </c>
@@ -8953,7 +8984,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1057</v>
       </c>
@@ -8967,7 +8998,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1059</v>
       </c>
@@ -8981,7 +9012,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>1062</v>
       </c>
@@ -8992,7 +9023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1063</v>
       </c>
@@ -9006,7 +9037,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1065</v>
       </c>
@@ -9020,7 +9051,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>1067</v>
       </c>
@@ -9034,7 +9065,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>1069</v>
       </c>
@@ -9048,7 +9079,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1071</v>
       </c>
@@ -9062,7 +9093,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1073</v>
       </c>
@@ -9073,7 +9104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>1074</v>
       </c>
@@ -9084,7 +9115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1075</v>
       </c>
@@ -9098,7 +9129,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>1077</v>
       </c>
@@ -9112,7 +9143,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1079</v>
       </c>
@@ -9126,7 +9157,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>1081</v>
       </c>
@@ -9140,7 +9171,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1083</v>
       </c>
@@ -9154,7 +9185,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>1085</v>
       </c>
@@ -9168,7 +9199,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>1087</v>
       </c>
@@ -9182,7 +9213,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>1089</v>
       </c>
@@ -9193,7 +9224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1090</v>
       </c>
@@ -9207,7 +9238,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>1092</v>
       </c>
@@ -9221,7 +9252,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1094</v>
       </c>
@@ -9235,7 +9266,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>1096</v>
       </c>
@@ -9249,7 +9280,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>1098</v>
       </c>
@@ -9260,7 +9291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>1099</v>
       </c>
@@ -9274,7 +9305,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>1101</v>
       </c>
@@ -9288,7 +9319,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>1103</v>
       </c>
@@ -9302,7 +9333,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1105</v>
       </c>
@@ -9316,7 +9347,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1107</v>
       </c>
@@ -9330,7 +9361,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>1109</v>
       </c>
@@ -9344,7 +9375,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>1111</v>
       </c>
@@ -9355,7 +9386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>1112</v>
       </c>
@@ -9369,7 +9400,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1114</v>
       </c>
@@ -9380,7 +9411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>1115</v>
       </c>
@@ -9394,7 +9425,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>1117</v>
       </c>
@@ -9408,7 +9439,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>1119</v>
       </c>
@@ -9422,7 +9453,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1121</v>
       </c>
@@ -9436,7 +9467,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>1123</v>
       </c>
@@ -9450,7 +9481,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>1125</v>
       </c>
@@ -9461,7 +9492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>1126</v>
       </c>
@@ -9475,7 +9506,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1128</v>
       </c>
@@ -9489,7 +9520,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>1131</v>
       </c>
@@ -9503,7 +9534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>1133</v>
       </c>
@@ -9514,7 +9545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>1134</v>
       </c>
@@ -9528,7 +9559,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>1137</v>
       </c>
@@ -9542,7 +9573,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>1139</v>
       </c>
@@ -9556,7 +9587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>1141</v>
       </c>
@@ -9567,7 +9598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>1142</v>
       </c>
@@ -9581,7 +9612,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>1144</v>
       </c>
@@ -9595,7 +9626,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>1146</v>
       </c>
@@ -9609,7 +9640,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>1148</v>
       </c>
@@ -9620,7 +9651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>1149</v>
       </c>
@@ -9634,7 +9665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>1151</v>
       </c>
@@ -9645,7 +9676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1152</v>
       </c>
@@ -9659,7 +9690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1154</v>
       </c>
@@ -9673,7 +9704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1156</v>
       </c>
@@ -9687,7 +9718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1158</v>
       </c>
@@ -9701,7 +9732,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1160</v>
       </c>
@@ -9715,7 +9746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>1162</v>
       </c>
@@ -9726,7 +9757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1163</v>
       </c>
@@ -9740,7 +9771,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1166</v>
       </c>
@@ -9754,7 +9785,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1169</v>
       </c>
@@ -9765,7 +9796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1170</v>
       </c>
@@ -9779,7 +9810,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1173</v>
       </c>
@@ -9793,7 +9824,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>1176</v>
       </c>
@@ -9807,7 +9838,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1178</v>
       </c>
@@ -9821,7 +9852,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1181</v>
       </c>
@@ -9835,7 +9866,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1184</v>
       </c>
@@ -9849,7 +9880,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1187</v>
       </c>
@@ -9863,7 +9894,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1190</v>
       </c>
@@ -9877,7 +9908,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1193</v>
       </c>
@@ -9891,7 +9922,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1195</v>
       </c>
@@ -9905,7 +9936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1197</v>
       </c>
@@ -9919,7 +9950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1199</v>
       </c>
@@ -9933,7 +9964,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1201</v>
       </c>
@@ -9947,7 +9978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1203</v>
       </c>
@@ -9961,7 +9992,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1205</v>
       </c>
@@ -9972,7 +10003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>1206</v>
       </c>
@@ -9983,7 +10014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1207</v>
       </c>
@@ -9997,7 +10028,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>1209</v>
       </c>
@@ -10011,7 +10042,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>1211</v>
       </c>
@@ -10025,7 +10056,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>1213</v>
       </c>
@@ -10039,7 +10070,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1216</v>
       </c>
@@ -10053,7 +10084,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>1219</v>
       </c>
@@ -10067,7 +10098,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>1222</v>
       </c>
@@ -10081,7 +10112,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>1224</v>
       </c>
@@ -10092,7 +10123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>1225</v>
       </c>
@@ -10106,7 +10137,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1227</v>
       </c>
@@ -10120,7 +10151,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>1229</v>
       </c>
@@ -10134,7 +10165,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>1231</v>
       </c>
@@ -10148,7 +10179,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>1233</v>
       </c>
@@ -10162,7 +10193,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>1236</v>
       </c>
@@ -10176,7 +10207,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>1238</v>
       </c>
@@ -10190,7 +10221,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>1240</v>
       </c>
@@ -10204,7 +10235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>1242</v>
       </c>
@@ -10215,7 +10246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1243</v>
       </c>
@@ -10226,7 +10257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>1244</v>
       </c>
@@ -10240,7 +10271,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>1247</v>
       </c>
@@ -10254,7 +10285,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>1250</v>
       </c>
@@ -10268,7 +10299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>1252</v>
       </c>
@@ -10282,7 +10313,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>1255</v>
       </c>
@@ -10296,7 +10327,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>1258</v>
       </c>
@@ -10310,7 +10341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>1260</v>
       </c>
@@ -10324,7 +10355,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1263</v>
       </c>
@@ -10335,7 +10366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>1264</v>
       </c>
@@ -10349,7 +10380,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>1267</v>
       </c>
@@ -10363,7 +10394,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>1269</v>
       </c>
@@ -10374,7 +10405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1270</v>
       </c>
@@ -10388,7 +10419,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1272</v>
       </c>
@@ -10402,7 +10433,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>1274</v>
       </c>
@@ -10416,7 +10447,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1276</v>
       </c>
@@ -10430,7 +10461,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1278</v>
       </c>
@@ -10444,7 +10475,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1280</v>
       </c>
@@ -10458,7 +10489,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1282</v>
       </c>
@@ -10469,7 +10500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>1283</v>
       </c>
@@ -10483,7 +10514,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>1285</v>
       </c>
@@ -10497,7 +10528,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1287</v>
       </c>
@@ -10508,7 +10539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1288</v>
       </c>
@@ -10522,7 +10553,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1290</v>
       </c>
@@ -10536,7 +10567,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1292</v>
       </c>
@@ -10550,7 +10581,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1294</v>
       </c>
@@ -10564,7 +10595,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>1296</v>
       </c>
@@ -10575,7 +10606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>1297</v>
       </c>
@@ -10589,7 +10620,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>1300</v>
       </c>
@@ -10603,7 +10634,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>1302</v>
       </c>
@@ -10614,7 +10645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1303</v>
       </c>
@@ -10628,7 +10659,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>1305</v>
       </c>
@@ -10642,7 +10673,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1307</v>
       </c>
@@ -10656,7 +10687,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>1309</v>
       </c>
@@ -10670,7 +10701,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>1311</v>
       </c>
@@ -10684,7 +10715,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1313</v>
       </c>
@@ -10695,7 +10726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1314</v>
       </c>
@@ -10709,7 +10740,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1316</v>
       </c>
@@ -10723,7 +10754,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1318</v>
       </c>
@@ -10737,7 +10768,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1320</v>
       </c>
@@ -10751,7 +10782,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1322</v>
       </c>
@@ -10765,7 +10796,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1324</v>
       </c>
@@ -10779,7 +10810,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1327</v>
       </c>
@@ -10793,7 +10824,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1329</v>
       </c>
@@ -10807,7 +10838,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1331</v>
       </c>
@@ -10818,7 +10849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1332</v>
       </c>
@@ -10832,7 +10863,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1334</v>
       </c>
@@ -10843,7 +10874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1335</v>
       </c>
@@ -10857,7 +10888,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>1337</v>
       </c>
@@ -10871,7 +10902,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1339</v>
       </c>
@@ -10885,7 +10916,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1341</v>
       </c>
@@ -10899,7 +10930,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1343</v>
       </c>
@@ -10913,7 +10944,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1345</v>
       </c>
@@ -10927,7 +10958,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1347</v>
       </c>
@@ -10941,7 +10972,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1349</v>
       </c>
@@ -10952,7 +10983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1350</v>
       </c>
@@ -10963,7 +10994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1351</v>
       </c>
@@ -10977,7 +11008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1353</v>
       </c>
@@ -10991,7 +11022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1355</v>
       </c>
@@ -11005,7 +11036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1357</v>
       </c>
@@ -11019,7 +11050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1359</v>
       </c>
@@ -11033,7 +11064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1361</v>
       </c>
@@ -11047,7 +11078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1363</v>
       </c>
@@ -11061,7 +11092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1365</v>
       </c>
@@ -11075,7 +11106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1367</v>
       </c>
@@ -11089,7 +11120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1369</v>
       </c>
@@ -11100,7 +11131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1370</v>
       </c>
@@ -11114,7 +11145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1372</v>
       </c>
@@ -11128,7 +11159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1374</v>
       </c>
@@ -11142,7 +11173,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1376</v>
       </c>
@@ -11156,7 +11187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1378</v>
       </c>
@@ -11170,7 +11201,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1381</v>
       </c>
@@ -11184,7 +11215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1383</v>
       </c>
@@ -11195,7 +11226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1384</v>
       </c>
@@ -11206,7 +11237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1385</v>
       </c>
@@ -11220,7 +11251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1387</v>
       </c>
@@ -11234,7 +11265,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1390</v>
       </c>
@@ -11248,7 +11279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>1392</v>
       </c>
@@ -11262,7 +11293,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1394</v>
       </c>
@@ -11276,7 +11307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1396</v>
       </c>
@@ -11290,7 +11321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1398</v>
       </c>
@@ -11301,7 +11332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1399</v>
       </c>
@@ -11315,7 +11346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1401</v>
       </c>
@@ -11326,7 +11357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1402</v>
       </c>
@@ -11340,7 +11371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1404</v>
       </c>
@@ -11354,7 +11385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1406</v>
       </c>
@@ -11368,7 +11399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1408</v>
       </c>
@@ -11382,7 +11413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1410</v>
       </c>
@@ -11396,7 +11427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1412</v>
       </c>
@@ -11410,7 +11441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1414</v>
       </c>
@@ -11424,7 +11455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1416</v>
       </c>
@@ -11438,7 +11469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1418</v>
       </c>
@@ -11452,7 +11483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1420</v>
       </c>
@@ -11466,7 +11497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1422</v>
       </c>
@@ -11480,7 +11511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1424</v>
       </c>
@@ -11494,7 +11525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1426</v>
       </c>
@@ -11508,7 +11539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1428</v>
       </c>
@@ -11522,7 +11553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1430</v>
       </c>
@@ -11536,7 +11567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1432</v>
       </c>
@@ -11550,7 +11581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1434</v>
       </c>
@@ -11564,7 +11595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1436</v>
       </c>
@@ -11578,7 +11609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1438</v>
       </c>
@@ -11592,7 +11623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1440</v>
       </c>
@@ -11606,7 +11637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1442</v>
       </c>
@@ -11617,7 +11648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1443</v>
       </c>
@@ -11631,7 +11662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1445</v>
       </c>
@@ -11642,7 +11673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1446</v>
       </c>
@@ -11656,7 +11687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1448</v>
       </c>
@@ -11670,7 +11701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1450</v>
       </c>
@@ -11684,7 +11715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1452</v>
       </c>
@@ -11698,7 +11729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1454</v>
       </c>
@@ -11712,7 +11743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1456</v>
       </c>
@@ -11726,7 +11757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1458</v>
       </c>
@@ -11740,7 +11771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1460</v>
       </c>
@@ -11754,7 +11785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1462</v>
       </c>
@@ -11765,7 +11796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1463</v>
       </c>
@@ -11779,7 +11810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1465</v>
       </c>
@@ -11793,7 +11824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1467</v>
       </c>
@@ -11807,7 +11838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1469</v>
       </c>
@@ -11821,7 +11852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1471</v>
       </c>
@@ -11835,7 +11866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1473</v>
       </c>
@@ -11849,7 +11880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1475</v>
       </c>
@@ -11863,7 +11894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1477</v>
       </c>
@@ -11877,7 +11908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1479</v>
       </c>
@@ -11891,7 +11922,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1482</v>
       </c>
@@ -11902,7 +11933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1483</v>
       </c>
@@ -11916,7 +11947,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1485</v>
       </c>
@@ -11927,7 +11958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1486</v>
       </c>
@@ -11941,7 +11972,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1488</v>
       </c>
@@ -11955,7 +11986,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1490</v>
       </c>
@@ -11969,7 +12000,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1492</v>
       </c>
@@ -11983,7 +12014,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1494</v>
       </c>
@@ -11997,7 +12028,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1496</v>
       </c>
@@ -12011,7 +12042,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1498</v>
       </c>
@@ -12025,7 +12056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1500</v>
       </c>
@@ -12039,7 +12070,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1502</v>
       </c>
@@ -12053,7 +12084,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1504</v>
       </c>
@@ -12067,7 +12098,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1506</v>
       </c>
@@ -12078,7 +12109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1507</v>
       </c>
@@ -12092,7 +12123,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1509</v>
       </c>
@@ -12103,7 +12134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1510</v>
       </c>
@@ -12117,7 +12148,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1512</v>
       </c>
@@ -12131,7 +12162,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1514</v>
       </c>
@@ -12145,7 +12176,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1516</v>
       </c>
@@ -12159,7 +12190,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1518</v>
       </c>
@@ -12173,7 +12204,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1520</v>
       </c>
@@ -12187,7 +12218,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1522</v>
       </c>
@@ -12198,7 +12229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1523</v>
       </c>
@@ -12212,7 +12243,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1525</v>
       </c>
@@ -12226,7 +12257,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1527</v>
       </c>
@@ -12240,7 +12271,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1529</v>
       </c>
@@ -12254,7 +12285,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1531</v>
       </c>
@@ -12265,7 +12296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1532</v>
       </c>
@@ -12276,7 +12307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1533</v>
       </c>
@@ -12290,7 +12321,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>1535</v>
       </c>
@@ -12304,7 +12335,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1537</v>
       </c>
@@ -12318,7 +12349,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1539</v>
       </c>
@@ -12329,7 +12360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1540</v>
       </c>
@@ -12343,7 +12374,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>1542</v>
       </c>
@@ -12357,7 +12388,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1544</v>
       </c>
@@ -12371,7 +12402,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1546</v>
       </c>
@@ -12385,7 +12416,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1548</v>
       </c>
@@ -12399,7 +12430,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1550</v>
       </c>
@@ -12413,7 +12444,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1552</v>
       </c>
@@ -12427,7 +12458,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1554</v>
       </c>
@@ -12441,7 +12472,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1556</v>
       </c>
@@ -12455,7 +12486,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1558</v>
       </c>
@@ -12469,7 +12500,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1560</v>
       </c>
@@ -12483,7 +12514,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1562</v>
       </c>
@@ -12497,7 +12528,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1564</v>
       </c>
@@ -12511,7 +12542,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1566</v>
       </c>
@@ -12525,7 +12556,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1568</v>
       </c>
@@ -12539,7 +12570,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1570</v>
       </c>
@@ -12553,7 +12584,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1573</v>
       </c>
@@ -12564,7 +12595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1574</v>
       </c>
@@ -12575,7 +12606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1575</v>
       </c>
@@ -12589,7 +12620,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1577</v>
       </c>
@@ -12603,7 +12634,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1579</v>
       </c>
@@ -12617,7 +12648,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1581</v>
       </c>
@@ -12631,7 +12662,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1583</v>
       </c>
@@ -12645,7 +12676,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1585</v>
       </c>
@@ -12659,7 +12690,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1587</v>
       </c>
@@ -12673,7 +12704,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1589</v>
       </c>
@@ -12687,7 +12718,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1591</v>
       </c>
@@ -12701,7 +12732,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1593</v>
       </c>
@@ -12715,7 +12746,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1595</v>
       </c>
@@ -12729,7 +12760,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1597</v>
       </c>
@@ -12745,16 +12776,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12771,7 +12807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>320</v>
       </c>
@@ -12782,7 +12818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>321</v>
       </c>
@@ -12793,7 +12829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>322</v>
       </c>
@@ -12803,14 +12839,14 @@
       <c r="C4" t="s">
         <v>323</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>326</v>
       </c>
@@ -12827,7 +12863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>328</v>
       </c>
@@ -12844,7 +12880,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>330</v>
       </c>
@@ -12861,7 +12897,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -12878,7 +12914,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>334</v>
       </c>
@@ -12895,7 +12931,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>337</v>
       </c>
@@ -12906,7 +12942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>338</v>
       </c>
@@ -12923,7 +12959,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>342</v>
       </c>
@@ -12940,7 +12976,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>345</v>
       </c>
@@ -12957,7 +12993,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>349</v>
       </c>
@@ -12974,7 +13010,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>353</v>
       </c>
@@ -12985,7 +13021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>354</v>
       </c>
@@ -13002,7 +13038,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>357</v>
       </c>
@@ -13019,7 +13055,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>360</v>
       </c>
@@ -13036,7 +13072,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -13053,7 +13089,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -13070,7 +13106,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>368</v>
       </c>
@@ -13087,7 +13123,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>371</v>
       </c>
@@ -13098,7 +13134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>372</v>
       </c>
@@ -13115,7 +13151,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>376</v>
       </c>
@@ -13132,7 +13168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -13149,7 +13185,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>383</v>
       </c>
@@ -13166,7 +13202,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>385</v>
       </c>
@@ -13177,7 +13213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>386</v>
       </c>
@@ -13194,7 +13230,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>390</v>
       </c>
@@ -13211,7 +13247,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>393</v>
       </c>
@@ -13228,7 +13264,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>396</v>
       </c>
@@ -13245,7 +13281,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>399</v>
       </c>
@@ -13262,7 +13298,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>402</v>
       </c>
@@ -13279,7 +13315,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>404</v>
       </c>
@@ -13296,7 +13332,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>406</v>
       </c>
@@ -13307,7 +13343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>407</v>
       </c>
@@ -13324,7 +13360,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>411</v>
       </c>
@@ -13341,7 +13377,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>413</v>
       </c>
@@ -13358,7 +13394,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>416</v>
       </c>
@@ -13376,17 +13412,25 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" location="_Toc506801611"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13403,7 +13447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>419</v>
       </c>
@@ -13420,7 +13464,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>423</v>
       </c>
@@ -13431,7 +13475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>424</v>
       </c>
@@ -13448,7 +13492,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>427</v>
       </c>
@@ -13465,7 +13509,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>430</v>
       </c>
@@ -13482,7 +13526,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>433</v>
       </c>
@@ -13499,7 +13543,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>435</v>
       </c>
@@ -13516,7 +13560,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>437</v>
       </c>
@@ -13533,7 +13577,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>440</v>
       </c>
@@ -13544,7 +13588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>441</v>
       </c>
@@ -13561,7 +13605,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>443</v>
       </c>
@@ -13578,7 +13622,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>445</v>
       </c>
@@ -13595,7 +13639,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>448</v>
       </c>
@@ -13612,7 +13656,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -13629,7 +13673,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>453</v>
       </c>
@@ -13646,7 +13690,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>456</v>
       </c>
@@ -13663,7 +13707,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>459</v>
       </c>
@@ -13680,7 +13724,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>462</v>
       </c>
@@ -13697,7 +13741,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>465</v>
       </c>
@@ -13714,7 +13758,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>468</v>
       </c>
@@ -13731,7 +13775,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>471</v>
       </c>
@@ -13748,7 +13792,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>474</v>
       </c>
@@ -13765,7 +13809,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>476</v>
       </c>
@@ -13782,7 +13826,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>479</v>
       </c>
@@ -13799,7 +13843,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>482</v>
       </c>
@@ -13816,7 +13860,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>485</v>
       </c>
@@ -13833,7 +13877,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>406</v>
       </c>
@@ -13844,7 +13888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -13858,7 +13902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>490</v>
       </c>
@@ -13877,16 +13921,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13903,7 +13950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -13914,7 +13961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>494</v>
       </c>
@@ -13931,7 +13978,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -13942,7 +13989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>498</v>
       </c>
@@ -13959,7 +14006,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>501</v>
       </c>
@@ -13976,7 +14023,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>504</v>
       </c>
@@ -13993,7 +14040,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>507</v>
       </c>
@@ -14010,7 +14057,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -14027,7 +14074,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>513</v>
       </c>
@@ -14044,7 +14091,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>406</v>
       </c>
@@ -14055,7 +14102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>516</v>
       </c>
@@ -14072,7 +14119,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>519</v>
       </c>
@@ -14089,7 +14136,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -14106,7 +14153,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>526</v>
       </c>
@@ -14123,7 +14170,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>529</v>
       </c>
@@ -14140,7 +14187,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>532</v>
       </c>
@@ -14157,7 +14204,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>535</v>
       </c>
@@ -14174,7 +14221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -14193,16 +14240,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14219,7 +14269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>542</v>
       </c>
@@ -14236,7 +14286,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>546</v>
       </c>
@@ -14253,7 +14303,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>406</v>
       </c>
@@ -14264,7 +14314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>549</v>
       </c>
@@ -14281,7 +14331,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>553</v>
       </c>
@@ -14298,7 +14348,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>556</v>
       </c>
@@ -14315,7 +14365,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>558</v>
       </c>
@@ -14332,7 +14382,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>516</v>
       </c>
@@ -14349,7 +14399,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>564</v>
       </c>
@@ -14366,7 +14416,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>568</v>
       </c>
@@ -14383,7 +14433,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>519</v>
       </c>
@@ -14400,7 +14450,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>522</v>
       </c>
@@ -14417,7 +14467,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>576</v>
       </c>
@@ -14434,7 +14484,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>580</v>
       </c>
@@ -14451,7 +14501,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>526</v>
       </c>
@@ -14470,16 +14520,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14496,7 +14549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>587</v>
       </c>
@@ -14507,7 +14560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>588</v>
       </c>
@@ -14524,7 +14577,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>592</v>
       </c>
@@ -14541,7 +14594,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>596</v>
       </c>
@@ -14558,7 +14611,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>600</v>
       </c>
@@ -14575,7 +14628,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>604</v>
       </c>
@@ -14592,7 +14645,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>607</v>
       </c>
@@ -14609,7 +14662,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>610</v>
       </c>
@@ -14626,7 +14679,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>614</v>
       </c>
@@ -14643,7 +14696,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>617</v>
       </c>
@@ -14660,7 +14713,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>620</v>
       </c>
@@ -14677,7 +14730,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>624</v>
       </c>
@@ -14688,7 +14741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>625</v>
       </c>
@@ -14702,7 +14755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>627</v>
       </c>
@@ -14716,7 +14769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>629</v>
       </c>
@@ -14733,7 +14786,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>633</v>
       </c>
@@ -14750,7 +14803,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>636</v>
       </c>
@@ -14767,7 +14820,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>640</v>
       </c>
@@ -14784,7 +14837,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>644</v>
       </c>
@@ -14801,7 +14854,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>647</v>
       </c>
@@ -14818,7 +14871,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>650</v>
       </c>
@@ -14835,7 +14888,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>653</v>
       </c>
@@ -14854,16 +14907,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14880,7 +14936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>587</v>
       </c>
@@ -14891,7 +14947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>657</v>
       </c>
@@ -14905,7 +14961,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>592</v>
       </c>
@@ -14916,7 +14972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>660</v>
       </c>
@@ -14930,7 +14986,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>663</v>
       </c>
@@ -14944,7 +15000,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>666</v>
       </c>
@@ -14955,7 +15011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>667</v>
       </c>
@@ -14969,7 +15025,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>670</v>
       </c>
@@ -14980,7 +15036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>671</v>
       </c>
@@ -14994,7 +15050,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>674</v>
       </c>
@@ -15008,7 +15064,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>677</v>
       </c>
@@ -15022,7 +15078,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>680</v>
       </c>
@@ -15033,7 +15089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>681</v>
       </c>
@@ -15047,7 +15103,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>684</v>
       </c>
@@ -15061,7 +15117,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>687</v>
       </c>
@@ -15075,7 +15131,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>689</v>
       </c>
@@ -15089,7 +15145,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>691</v>
       </c>
@@ -15103,7 +15159,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>694</v>
       </c>
@@ -15114,7 +15170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>695</v>
       </c>
@@ -15128,7 +15184,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>697</v>
       </c>
@@ -15139,7 +15195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>698</v>
       </c>
@@ -15153,7 +15209,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>701</v>
       </c>
@@ -15167,7 +15223,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>704</v>
       </c>
@@ -15181,7 +15237,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>707</v>
       </c>
@@ -15195,7 +15251,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>709</v>
       </c>
@@ -15209,7 +15265,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>600</v>
       </c>
@@ -15225,16 +15281,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15251,7 +15310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>406</v>
       </c>
@@ -15262,7 +15321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>713</v>
       </c>
@@ -15273,7 +15332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>714</v>
       </c>
@@ -15284,7 +15343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>715</v>
       </c>
@@ -15295,7 +15354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>716</v>
       </c>
@@ -15306,7 +15365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>717</v>
       </c>
@@ -15323,7 +15382,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>721</v>
       </c>
@@ -15340,7 +15399,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>724</v>
       </c>
@@ -15357,7 +15416,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>726</v>
       </c>
@@ -15368,7 +15427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>727</v>
       </c>
@@ -15385,7 +15444,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>730</v>
       </c>
@@ -15396,7 +15455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>731</v>
       </c>
@@ -15407,7 +15466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>732</v>
       </c>
@@ -15418,7 +15477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -15435,7 +15494,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>735</v>
       </c>
@@ -15449,7 +15508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>737</v>
       </c>
@@ -15460,7 +15519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -15471,7 +15530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>739</v>
       </c>
@@ -15488,7 +15547,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>742</v>
       </c>
@@ -15499,7 +15558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>743</v>
       </c>
@@ -15516,7 +15575,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -15527,7 +15586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>747</v>
       </c>
@@ -15544,7 +15603,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>749</v>
       </c>
@@ -15558,7 +15617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>751</v>
       </c>
@@ -15569,7 +15628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>752</v>
       </c>
@@ -15586,7 +15645,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>755</v>
       </c>
@@ -15597,7 +15656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>756</v>
       </c>
@@ -15614,7 +15673,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>759</v>
       </c>
@@ -15625,7 +15684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>760</v>
       </c>
@@ -15642,7 +15701,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>763</v>
       </c>
@@ -15653,7 +15712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>764</v>
       </c>
@@ -15664,7 +15723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>765</v>
       </c>
@@ -15681,7 +15740,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>768</v>
       </c>
@@ -15692,7 +15751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>769</v>
       </c>
@@ -15709,7 +15768,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>772</v>
       </c>
@@ -15720,7 +15779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>773</v>
       </c>
@@ -15739,16 +15798,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15765,7 +15827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>776</v>
       </c>
@@ -15776,7 +15838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>777</v>
       </c>
@@ -15790,7 +15852,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>780</v>
       </c>
@@ -15804,7 +15866,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>783</v>
       </c>
@@ -15818,7 +15880,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>786</v>
       </c>
@@ -15832,7 +15894,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>789</v>
       </c>
@@ -15846,7 +15908,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>791</v>
       </c>
@@ -15860,7 +15922,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>793</v>
       </c>
@@ -15874,7 +15936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>795</v>
       </c>
@@ -15888,7 +15950,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>797</v>
       </c>
@@ -15902,7 +15964,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>800</v>
       </c>
@@ -15916,7 +15978,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>802</v>
       </c>
@@ -15930,7 +15992,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>805</v>
       </c>
@@ -15944,7 +16006,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>807</v>
       </c>
@@ -15958,7 +16020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>809</v>
       </c>
@@ -15972,7 +16034,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>811</v>
       </c>
@@ -15986,7 +16048,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>814</v>
       </c>
@@ -16000,7 +16062,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>816</v>
       </c>
@@ -16014,7 +16076,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>819</v>
       </c>
@@ -16028,7 +16090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>821</v>
       </c>
@@ -16042,7 +16104,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>824</v>
       </c>
@@ -16056,7 +16118,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>827</v>
       </c>
@@ -16072,6 +16134,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/src/app/data/Database.xlsx
+++ b/src/app/data/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7940" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7940"/>
   </bookViews>
   <sheets>
     <sheet name="ISO" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="1599">
   <si>
     <t>id</t>
   </si>
@@ -5065,12 +5065,6 @@
   </si>
   <si>
     <t>Article(49)(5): In the absence of an adequacy decision, Union or Member State law may, for important reasons of public interest, expressly set limits to the...</t>
-  </si>
-  <si>
-    <t>5 - Section 5</t>
-  </si>
-  <si>
-    <t>5.2 - Section 5.2</t>
   </si>
 </sst>
 </file>
@@ -5115,9 +5109,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5460,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5491,8 +5488,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>1599</v>
+      <c r="B2" s="2">
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -5502,8 +5499,8 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>1600</v>
+      <c r="B3" s="2">
+        <v>5.2</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -7296,7 +7293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
